--- a/JAVA data/day7/메소드.xlsx
+++ b/JAVA data/day7/메소드.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\전직활동\JAVA data\day7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D777A2FF-A7FD-40BA-B6EE-70B86C351412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10190A55-F068-46A8-A982-09421CB0022C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C12B5F0D-30A6-4E20-A198-54E975DF5790}"/>
   </bookViews>
@@ -535,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,6 +572,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,70 +605,55 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1604,8 +1610,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1617,27 +1623,27 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1729,36 +1735,44 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="38" t="s">
         <v>13</v>
       </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="2" t="s">
+      <c r="D16" s="39"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="39"/>
+      <c r="C17" s="38" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="2" t="s">
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="B21" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1767,25 +1781,25 @@
       </c>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1793,17 +1807,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
@@ -1837,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B88E869-6141-4729-9A63-B7FF89286A75}">
   <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1852,66 +1866,66 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="Q4" s="20" t="s">
+      <c r="C4" s="22"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="Q4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="21"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="37"/>
     </row>
     <row r="5" spans="1:20">
       <c r="K5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="Q5" s="16" t="s">
+      <c r="O5" s="24"/>
+      <c r="Q5" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="24" t="s">
         <v>59</v>
       </c>
       <c r="S5" s="26" t="s">
@@ -1923,11 +1937,11 @@
       <c r="K6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="19">
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="12">
         <v>0</v>
       </c>
       <c r="T6" s="4" t="s">
@@ -1935,11 +1949,11 @@
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="19">
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="12">
         <v>1</v>
       </c>
       <c r="T7" s="4" t="s">
@@ -1947,11 +1961,11 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="19">
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="12">
         <v>2</v>
       </c>
       <c r="T8" s="4" t="s">
@@ -1959,10 +1973,10 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="16" t="s">
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="24" t="s">
         <v>60</v>
       </c>
       <c r="S9" s="26" t="s">
@@ -1971,11 +1985,11 @@
       <c r="T9" s="27"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="19">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="12">
         <v>0</v>
       </c>
       <c r="T10" s="4" t="s">
@@ -1983,11 +1997,11 @@
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="19">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="12">
         <v>1</v>
       </c>
       <c r="T11" s="4" t="s">
@@ -1995,11 +2009,11 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="19">
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="12">
         <v>2</v>
       </c>
       <c r="T12" s="4" t="s">
@@ -2007,10 +2021,10 @@
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="16" t="s">
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="24" t="s">
         <v>61</v>
       </c>
       <c r="S13" s="26" t="s">
@@ -2019,11 +2033,11 @@
       <c r="T13" s="27"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="19">
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="12">
         <v>0</v>
       </c>
       <c r="T14" s="4" t="s">
@@ -2031,11 +2045,11 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="19">
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="12">
         <v>1</v>
       </c>
       <c r="T15" s="4" t="s">
@@ -2050,11 +2064,11 @@
         <v>34</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="19">
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="12">
         <v>2</v>
       </c>
       <c r="T16" s="4" t="s">
@@ -2072,29 +2086,29 @@
       </c>
     </row>
     <row r="20" spans="12:16">
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="M20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="25"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="12:16">
       <c r="L21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="M21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="23" t="s">
+      <c r="N21" s="25"/>
+      <c r="O21" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="P21" s="24"/>
+      <c r="P21" s="34"/>
     </row>
     <row r="22" spans="12:16">
-      <c r="O22" s="19">
+      <c r="O22" s="12">
         <v>0</v>
       </c>
       <c r="P22" s="4" t="s">
@@ -2102,7 +2116,7 @@
       </c>
     </row>
     <row r="23" spans="12:16">
-      <c r="O23" s="19">
+      <c r="O23" s="12">
         <v>1</v>
       </c>
       <c r="P23" s="4" t="s">
@@ -2110,7 +2124,7 @@
       </c>
     </row>
     <row r="24" spans="12:16">
-      <c r="O24" s="19">
+      <c r="O24" s="12">
         <v>2</v>
       </c>
       <c r="P24" s="4" t="s">
@@ -2118,29 +2132,29 @@
       </c>
     </row>
     <row r="26" spans="12:16">
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M26" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="23"/>
     </row>
     <row r="27" spans="12:16">
       <c r="L27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="16" t="s">
+      <c r="M27" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="18"/>
-      <c r="O27" s="23" t="s">
+      <c r="N27" s="25"/>
+      <c r="O27" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="P27" s="24"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="12:16">
-      <c r="O28" s="19">
+      <c r="O28" s="12">
         <v>0</v>
       </c>
       <c r="P28" s="4" t="s">
@@ -2148,7 +2162,7 @@
       </c>
     </row>
     <row r="29" spans="12:16">
-      <c r="O29" s="19">
+      <c r="O29" s="12">
         <v>1</v>
       </c>
       <c r="P29" s="4" t="s">
@@ -2156,7 +2170,7 @@
       </c>
     </row>
     <row r="30" spans="12:16">
-      <c r="O30" s="19">
+      <c r="O30" s="12">
         <v>2</v>
       </c>
       <c r="P30" s="4" t="s">
@@ -2164,29 +2178,29 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="L33" s="22" t="s">
+      <c r="L33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M33" s="25" t="s">
+      <c r="M33" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="N33" s="25"/>
+      <c r="N33" s="23"/>
     </row>
     <row r="34" spans="1:18">
       <c r="L34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="16" t="s">
+      <c r="M34" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N34" s="18"/>
-      <c r="O34" s="23" t="s">
+      <c r="N34" s="25"/>
+      <c r="O34" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="P34" s="24"/>
+      <c r="P34" s="34"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="O35" s="19">
+      <c r="O35" s="12">
         <v>0</v>
       </c>
       <c r="P35" s="4" t="s">
@@ -2194,7 +2208,7 @@
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="O36" s="19">
+      <c r="O36" s="12">
         <v>1</v>
       </c>
       <c r="P36" s="4" t="s">
@@ -2202,7 +2216,7 @@
       </c>
     </row>
     <row r="37" spans="1:18">
-      <c r="O37" s="19">
+      <c r="O37" s="12">
         <v>2</v>
       </c>
       <c r="P37" s="4" t="s">
@@ -2213,10 +2227,10 @@
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:18">
       <c r="R41" s="2" t="s">
@@ -2229,7 +2243,7 @@
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="N43" s="31" t="s">
+      <c r="N43" s="14" t="s">
         <v>39</v>
       </c>
       <c r="O43" s="32" t="s">
@@ -2238,41 +2252,41 @@
       <c r="P43" s="32"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="N44" s="16" t="s">
+      <c r="N44" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="O44" s="16" t="s">
+      <c r="O44" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16" t="s">
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="N46" s="16" t="s">
+      <c r="N46" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="16" t="s">
+      <c r="O46" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="P46" s="16"/>
+      <c r="P46" s="24"/>
       <c r="Q46" s="26" t="s">
         <v>40</v>
       </c>
       <c r="R46" s="27"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="19">
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="12">
         <v>0</v>
       </c>
       <c r="R47" s="4" t="s">
@@ -2280,10 +2294,10 @@
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="19">
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="12">
         <v>1</v>
       </c>
       <c r="R48" s="4" t="s">
@@ -2291,10 +2305,10 @@
       </c>
     </row>
     <row r="49" spans="14:20">
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="19">
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="12">
         <v>2</v>
       </c>
       <c r="R49" s="4" t="s">
@@ -2302,19 +2316,19 @@
       </c>
     </row>
     <row r="50" spans="14:20">
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
       <c r="Q50" s="26" t="s">
         <v>47</v>
       </c>
       <c r="R50" s="27"/>
     </row>
     <row r="51" spans="14:20">
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="19">
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="12">
         <v>0</v>
       </c>
       <c r="R51" s="4" t="s">
@@ -2322,10 +2336,10 @@
       </c>
     </row>
     <row r="52" spans="14:20">
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="19">
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="12">
         <v>1</v>
       </c>
       <c r="R52" s="4" t="s">
@@ -2333,10 +2347,10 @@
       </c>
     </row>
     <row r="53" spans="14:20">
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="19">
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="12">
         <v>2</v>
       </c>
       <c r="R53" s="4" t="s">
@@ -2344,19 +2358,19 @@
       </c>
     </row>
     <row r="54" spans="14:20">
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
       <c r="Q54" s="26" t="s">
         <v>52</v>
       </c>
       <c r="R54" s="27"/>
     </row>
     <row r="55" spans="14:20">
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="19">
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="12">
         <v>0</v>
       </c>
       <c r="R55" s="4" t="s">
@@ -2364,10 +2378,10 @@
       </c>
     </row>
     <row r="56" spans="14:20">
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="19">
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="12">
         <v>1</v>
       </c>
       <c r="R56" s="4" t="s">
@@ -2375,10 +2389,10 @@
       </c>
     </row>
     <row r="57" spans="14:20">
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="19">
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="12">
         <v>2</v>
       </c>
       <c r="R57" s="4" t="s">
@@ -2386,17 +2400,17 @@
       </c>
     </row>
     <row r="58" spans="14:20">
-      <c r="N58" s="28" t="s">
+      <c r="N58" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="16" t="s">
+      <c r="O58" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16" t="s">
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="R58" s="16" t="s">
+      <c r="R58" s="24" t="s">
         <v>59</v>
       </c>
       <c r="S58" s="26" t="s">
@@ -2405,12 +2419,12 @@
       <c r="T58" s="27"/>
     </row>
     <row r="59" spans="14:20">
-      <c r="N59" s="29"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="19">
+      <c r="N59" s="30"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="12">
         <v>0</v>
       </c>
       <c r="T59" s="4" t="s">
@@ -2418,12 +2432,12 @@
       </c>
     </row>
     <row r="60" spans="14:20">
-      <c r="N60" s="29"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="19">
+      <c r="N60" s="30"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="12">
         <v>1</v>
       </c>
       <c r="T60" s="4" t="s">
@@ -2431,12 +2445,12 @@
       </c>
     </row>
     <row r="61" spans="14:20">
-      <c r="N61" s="29"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="19">
+      <c r="N61" s="30"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="12">
         <v>2</v>
       </c>
       <c r="T61" s="4" t="s">
@@ -2444,11 +2458,11 @@
       </c>
     </row>
     <row r="62" spans="14:20">
-      <c r="N62" s="29"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="16" t="s">
+      <c r="N62" s="30"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="24" t="s">
         <v>60</v>
       </c>
       <c r="S62" s="26" t="s">
@@ -2457,12 +2471,12 @@
       <c r="T62" s="27"/>
     </row>
     <row r="63" spans="14:20">
-      <c r="N63" s="29"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="19">
+      <c r="N63" s="30"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="12">
         <v>0</v>
       </c>
       <c r="T63" s="4" t="s">
@@ -2470,12 +2484,12 @@
       </c>
     </row>
     <row r="64" spans="14:20">
-      <c r="N64" s="29"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="19">
+      <c r="N64" s="30"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="12">
         <v>1</v>
       </c>
       <c r="T64" s="4" t="s">
@@ -2483,12 +2497,12 @@
       </c>
     </row>
     <row r="65" spans="14:20">
-      <c r="N65" s="29"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="19">
+      <c r="N65" s="30"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="12">
         <v>2</v>
       </c>
       <c r="T65" s="4" t="s">
@@ -2496,11 +2510,11 @@
       </c>
     </row>
     <row r="66" spans="14:20">
-      <c r="N66" s="29"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="16" t="s">
+      <c r="N66" s="30"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="24" t="s">
         <v>61</v>
       </c>
       <c r="S66" s="26" t="s">
@@ -2509,12 +2523,12 @@
       <c r="T66" s="27"/>
     </row>
     <row r="67" spans="14:20">
-      <c r="N67" s="29"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="19">
+      <c r="N67" s="30"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="12">
         <v>0</v>
       </c>
       <c r="T67" s="4" t="s">
@@ -2522,12 +2536,12 @@
       </c>
     </row>
     <row r="68" spans="14:20">
-      <c r="N68" s="29"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="19">
+      <c r="N68" s="30"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="12">
         <v>1</v>
       </c>
       <c r="T68" s="4" t="s">
@@ -2535,12 +2549,12 @@
       </c>
     </row>
     <row r="69" spans="14:20">
-      <c r="N69" s="30"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="19">
+      <c r="N69" s="31"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="12">
         <v>2</v>
       </c>
       <c r="T69" s="4" t="s">
@@ -2556,12 +2570,19 @@
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="R13:R16"/>
     <mergeCell ref="S13:T13"/>
+    <mergeCell ref="R5:R8"/>
     <mergeCell ref="N44:N45"/>
     <mergeCell ref="O44:P45"/>
     <mergeCell ref="Q44:Q45"/>
     <mergeCell ref="Q58:Q69"/>
     <mergeCell ref="Q5:Q16"/>
-    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O21:P21"/>
     <mergeCell ref="S66:T66"/>
     <mergeCell ref="R58:R61"/>
     <mergeCell ref="R62:R65"/>
@@ -2575,13 +2596,6 @@
     <mergeCell ref="S58:T58"/>
     <mergeCell ref="S62:T62"/>
     <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O21:P21"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B40:C40"/>
